--- a/data/fact_data/parbhani/Parbhani_Sec_july_19.xlsx
+++ b/data/fact_data/parbhani/Parbhani_Sec_july_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/parbhani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12333B8-9A82-E341-8339-99A342B5BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858AB049-4F51-4645-8A99-B76B685A6A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KE_Jul_19" sheetId="2" r:id="rId1"/>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Gonablok 200mg 3*10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PRODUCT</t>
   </si>
   <si>
     <t>Myospaz D          5*10's</t>
@@ -290,10 +287,13 @@
     <t>Total_Price</t>
   </si>
   <si>
-    <t>shrei Laxmi venketesh</t>
+    <t>July</t>
   </si>
   <si>
-    <t>July</t>
+    <t>Shri Laxmi Venkatesh</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
@@ -1874,9 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366A464-7A6E-AD4A-8397-F3201310EB20}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1885,31 +1883,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1928,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -1956,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -1986,13 +1984,13 @@
         <v>4186</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -2016,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -2046,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -2076,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -2106,13 +2104,13 @@
         <v>880</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -2136,13 +2134,13 @@
         <v>4731</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -2150,7 +2148,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2162,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -2176,7 +2174,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2188,13 +2186,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -2218,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -2248,13 +2246,13 @@
         <v>24034</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -2278,13 +2276,13 @@
         <v>4368</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -2292,7 +2290,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -2308,13 +2306,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -2322,7 +2320,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -2335,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -2349,7 +2347,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>518</v>
@@ -2365,13 +2363,13 @@
         <v>36260</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -2379,7 +2377,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>276</v>
@@ -2395,13 +2393,13 @@
         <v>13524</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -2409,7 +2407,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2421,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -2435,7 +2433,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>14</v>
@@ -2451,13 +2449,13 @@
         <v>5586</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -2465,7 +2463,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>6</v>
@@ -2481,13 +2479,13 @@
         <v>3714</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -2495,7 +2493,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2504,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -2534,13 +2532,13 @@
         <v>17864</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -2548,7 +2546,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -2564,13 +2562,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -2594,13 +2592,13 @@
         <v>4800</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -2624,13 +2622,13 @@
         <v>6240</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -2638,7 +2636,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -2654,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -2668,7 +2666,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -2684,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -2698,7 +2696,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -2714,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -2728,7 +2726,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -2744,13 +2742,13 @@
         <v>538</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -2758,7 +2756,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2774,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -2788,7 +2786,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2804,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -2818,7 +2816,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2834,13 +2832,13 @@
         <v>865</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -2864,13 +2862,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -2878,7 +2876,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
@@ -2891,13 +2889,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -2917,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -2947,13 +2945,13 @@
         <v>2734</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -2977,13 +2975,13 @@
         <v>1910</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -2991,7 +2989,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
@@ -3007,13 +3005,13 @@
         <v>336</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -3037,13 +3035,13 @@
         <v>6435</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -3067,13 +3065,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -3081,7 +3079,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
@@ -3097,13 +3095,13 @@
         <v>2540</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -3111,7 +3109,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
@@ -3127,13 +3125,13 @@
         <v>4736</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -3141,7 +3139,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -3157,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -3171,7 +3169,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -3184,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -3198,7 +3196,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3207,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -3233,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -3263,13 +3261,13 @@
         <v>471</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -3293,13 +3291,13 @@
         <v>1115</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -3307,7 +3305,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -3320,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -3334,7 +3332,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3346,13 +3344,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -3360,7 +3358,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
@@ -3374,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -3388,7 +3386,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -3402,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -3416,7 +3414,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>56</v>
@@ -3430,13 +3428,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -3444,7 +3442,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3456,13 +3454,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -3470,7 +3468,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -3484,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -3498,7 +3496,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3510,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -3524,7 +3522,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -3540,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -3554,7 +3552,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -3570,13 +3568,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -3584,7 +3582,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>5</v>
@@ -3600,13 +3598,13 @@
         <v>1125</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -3614,7 +3612,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -3630,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -3644,7 +3642,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -3656,13 +3654,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -3670,7 +3668,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3678,13 +3676,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -3692,7 +3690,7 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -3704,13 +3702,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -3718,7 +3716,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -3730,13 +3728,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -3744,7 +3742,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -3753,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -3767,7 +3765,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3775,13 +3773,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -3789,7 +3787,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>9</v>
@@ -3801,13 +3799,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -3815,7 +3813,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3823,13 +3821,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -3837,7 +3835,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -3849,13 +3847,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -3863,7 +3861,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>12</v>
@@ -3872,13 +3870,13 @@
         <v>8</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -3896,11 +3894,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC2B61-4217-A44E-B170-F7E9B5E915E9}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3910,31 +3906,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3955,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -3985,13 +3981,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -4015,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -4041,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -4067,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -4093,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -4123,13 +4119,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -4153,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -4167,7 +4163,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4179,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -4193,7 +4189,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4205,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -4231,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -4261,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -4287,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -4301,7 +4297,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4313,13 +4309,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -4327,7 +4323,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4336,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -4350,7 +4346,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -4366,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -4380,7 +4376,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -4396,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -4410,7 +4406,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4422,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -4436,7 +4432,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4448,13 +4444,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -4462,7 +4458,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4474,13 +4470,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -4488,7 +4484,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4497,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -4527,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -4541,7 +4537,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4557,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -4587,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -4617,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -4631,7 +4627,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4643,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -4657,7 +4653,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4673,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -4687,7 +4683,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -4701,13 +4697,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -4715,7 +4711,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -4731,13 +4727,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -4745,7 +4741,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4761,13 +4757,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -4775,7 +4771,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4791,13 +4787,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -4805,7 +4801,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4821,13 +4817,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -4851,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -4865,7 +4861,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -4878,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -4904,13 +4900,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -4934,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -4960,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -4974,7 +4970,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4986,13 +4982,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -5012,13 +5008,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -5038,13 +5034,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -5052,7 +5048,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5064,13 +5060,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -5078,7 +5074,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5094,13 +5090,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -5108,7 +5104,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5124,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -5138,7 +5134,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -5151,13 +5147,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -5165,7 +5161,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5174,13 +5170,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -5200,13 +5196,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -5226,13 +5222,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -5252,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -5266,7 +5262,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -5279,13 +5275,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -5293,7 +5289,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5305,13 +5301,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -5319,7 +5315,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -5333,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -5347,7 +5343,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5359,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -5373,7 +5369,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5383,13 +5379,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -5397,7 +5393,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5409,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -5423,7 +5419,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5433,13 +5429,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -5447,7 +5443,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5459,13 +5455,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -5473,7 +5469,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5485,13 +5481,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -5499,7 +5495,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5511,13 +5507,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -5525,7 +5521,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5537,13 +5533,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -5551,7 +5547,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5563,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -5577,7 +5573,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5585,13 +5581,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -5599,7 +5595,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5607,13 +5603,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -5621,7 +5617,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5629,13 +5625,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -5643,7 +5639,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5651,13 +5647,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -5665,18 +5661,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -5684,7 +5680,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5692,13 +5688,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -5706,7 +5702,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -5718,13 +5714,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -5732,7 +5728,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5740,13 +5736,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -5754,7 +5750,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -5766,13 +5762,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -5780,7 +5776,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -5789,24 +5785,16 @@
         <v>0</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="B72" s="24">
-        <v>0</v>
-      </c>
-      <c r="C72" s="24">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5819,9 +5807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803B3AD-3034-1048-B0AB-2AA2336E3FB4}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5831,31 +5817,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5872,13 +5858,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -5898,13 +5884,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -5928,13 +5914,13 @@
         <v>3094</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -5954,13 +5940,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -5980,13 +5966,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -6006,13 +5992,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -6036,13 +6022,13 @@
         <v>88</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -6066,13 +6052,13 @@
         <v>741</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -6080,7 +6066,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6096,13 +6082,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -6110,7 +6096,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6126,13 +6112,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -6152,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -6182,13 +6168,13 @@
         <v>1281</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -6212,13 +6198,13 @@
         <v>5408</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -6226,7 +6212,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -6242,13 +6228,13 @@
         <v>392</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -6256,7 +6242,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>11</v>
@@ -6269,13 +6255,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -6283,7 +6269,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>194</v>
@@ -6299,13 +6285,13 @@
         <v>9030</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -6313,7 +6299,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>235</v>
@@ -6329,13 +6315,13 @@
         <v>1372</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -6343,7 +6329,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6359,13 +6345,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -6373,7 +6359,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -6389,13 +6375,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -6403,7 +6389,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>9</v>
@@ -6419,13 +6405,13 @@
         <v>1238</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -6433,7 +6419,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6442,13 +6428,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -6472,13 +6458,13 @@
         <v>5104</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -6486,7 +6472,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -6502,13 +6488,13 @@
         <v>272</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -6532,13 +6518,13 @@
         <v>960</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -6562,13 +6548,13 @@
         <v>4320</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -6576,7 +6562,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3">
@@ -6590,13 +6576,13 @@
         <v>4150</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -6604,7 +6590,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6620,13 +6606,13 @@
         <v>1290</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -6634,7 +6620,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -6650,13 +6636,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -6664,7 +6650,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -6680,13 +6666,13 @@
         <v>1883</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -6694,7 +6680,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -6710,13 +6696,13 @@
         <v>633</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -6724,7 +6710,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -6740,13 +6726,13 @@
         <v>2367</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -6754,7 +6740,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>4</v>
@@ -6770,13 +6756,13 @@
         <v>865</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -6800,13 +6786,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -6814,7 +6800,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
@@ -6827,13 +6813,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -6853,13 +6839,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -6883,13 +6869,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -6913,13 +6899,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -6927,7 +6913,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -6943,13 +6929,13 @@
         <v>504</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -6973,13 +6959,13 @@
         <v>2574</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -7003,13 +6989,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -7017,7 +7003,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -7033,13 +7019,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -7047,7 +7033,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>7</v>
@@ -7063,13 +7049,13 @@
         <v>1184</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -7077,7 +7063,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -7093,13 +7079,13 @@
         <v>755</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -7107,7 +7093,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -7120,13 +7106,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -7134,7 +7120,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7143,13 +7129,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -7169,13 +7155,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -7199,13 +7185,13 @@
         <v>471</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -7229,13 +7215,13 @@
         <v>892</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -7243,7 +7229,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -7256,13 +7242,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -7270,7 +7256,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7282,13 +7268,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -7296,7 +7282,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
@@ -7310,13 +7296,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -7324,7 +7310,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -7336,13 +7322,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -7350,7 +7336,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>40</v>
@@ -7364,13 +7350,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -7378,7 +7364,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -7390,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -7404,7 +7390,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>5</v>
@@ -7418,13 +7404,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -7432,7 +7418,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -7444,13 +7430,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -7458,7 +7444,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -7474,13 +7460,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -7488,7 +7474,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -7504,13 +7490,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -7518,7 +7504,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -7534,13 +7520,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -7548,7 +7534,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7564,13 +7550,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -7578,7 +7564,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -7590,13 +7576,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -7604,7 +7590,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7612,13 +7598,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -7626,7 +7612,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7638,13 +7624,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -7652,7 +7638,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7664,13 +7650,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -7678,7 +7664,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -7687,13 +7673,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -7701,7 +7687,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7709,13 +7695,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -7723,7 +7709,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>5</v>
@@ -7735,13 +7721,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -7749,7 +7735,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -7761,13 +7747,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -7775,7 +7761,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>5</v>
@@ -7787,13 +7773,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -7801,7 +7787,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>8</v>
@@ -7810,13 +7796,13 @@
         <v>4</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -7836,9 +7822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81450CD-4BCC-3B48-951B-DD26CC02B66F}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -7847,31 +7831,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7888,13 +7872,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -7914,13 +7898,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -7944,13 +7928,13 @@
         <v>5460</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -7970,13 +7954,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -8000,13 +7984,13 @@
         <v>130</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -8026,13 +8010,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -8056,13 +8040,13 @@
         <v>880</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -8086,13 +8070,13 @@
         <v>2850</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -8100,7 +8084,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8112,13 +8096,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -8126,7 +8110,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8138,13 +8122,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -8168,13 +8152,13 @@
         <v>892</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -8198,13 +8182,13 @@
         <v>2989</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -8228,13 +8212,13 @@
         <v>5616</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -8242,7 +8226,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -8258,13 +8242,13 @@
         <v>49</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -8272,7 +8256,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -8285,13 +8269,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -8299,7 +8283,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>233</v>
@@ -8315,13 +8299,13 @@
         <v>9240</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -8329,7 +8313,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>216</v>
@@ -8345,13 +8329,13 @@
         <v>6713</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -8359,7 +8343,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8371,13 +8355,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -8385,7 +8369,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -8401,13 +8385,13 @@
         <v>15162</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -8415,7 +8399,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -8431,13 +8415,13 @@
         <v>2476</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -8445,7 +8429,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8454,13 +8438,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -8484,13 +8468,13 @@
         <v>6380</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -8498,7 +8482,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -8514,13 +8498,13 @@
         <v>68</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -8544,13 +8528,13 @@
         <v>240</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -8574,13 +8558,13 @@
         <v>1440</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -8588,7 +8572,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8600,13 +8584,13 @@
         <v>2490</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -8614,7 +8598,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -8630,13 +8614,13 @@
         <v>1290</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -8644,7 +8628,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -8660,13 +8644,13 @@
         <v>2880</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -8674,7 +8658,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -8690,13 +8674,13 @@
         <v>1076</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -8704,7 +8688,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -8720,13 +8704,13 @@
         <v>1266</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -8734,7 +8718,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -8750,13 +8734,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -8764,7 +8748,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>2</v>
@@ -8780,13 +8764,13 @@
         <v>865</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -8810,13 +8794,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -8824,7 +8808,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -8837,13 +8821,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -8863,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -8893,13 +8877,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -8923,13 +8907,13 @@
         <v>1910</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -8937,7 +8921,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -8953,13 +8937,13 @@
         <v>504</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -8983,13 +8967,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -9009,13 +8993,13 @@
         <v>2716</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -9023,7 +9007,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -9035,13 +9019,13 @@
         <v>2540</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -9049,7 +9033,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -9065,13 +9049,13 @@
         <v>2368</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -9079,7 +9063,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -9095,13 +9079,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -9109,7 +9093,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -9122,13 +9106,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -9136,7 +9120,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -9145,13 +9129,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -9171,13 +9155,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -9201,13 +9185,13 @@
         <v>785</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -9231,13 +9215,13 @@
         <v>1115</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -9245,7 +9229,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -9258,13 +9242,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -9272,7 +9256,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -9284,13 +9268,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -9298,7 +9282,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -9312,13 +9296,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -9326,7 +9310,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -9338,13 +9322,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -9352,7 +9336,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -9366,13 +9350,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -9380,7 +9364,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -9392,13 +9376,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -9406,7 +9390,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -9420,13 +9404,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -9434,7 +9418,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9446,13 +9430,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -9460,7 +9444,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9472,13 +9456,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -9486,7 +9470,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9498,13 +9482,13 @@
         <v>896</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -9512,7 +9496,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9524,13 +9508,13 @@
         <v>1125</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -9538,7 +9522,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9550,13 +9534,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -9564,7 +9548,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9572,13 +9556,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -9586,7 +9570,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9594,13 +9578,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -9608,7 +9592,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9616,13 +9600,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -9630,7 +9614,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9638,13 +9622,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -9652,18 +9636,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -9671,7 +9655,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -9679,13 +9663,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -9693,7 +9677,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>3</v>
@@ -9705,13 +9689,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -9719,7 +9703,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -9727,13 +9711,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -9741,7 +9725,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -9753,13 +9737,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -9767,7 +9751,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>15</v>
@@ -9776,13 +9760,13 @@
         <v>9</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -9802,9 +9786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E5807C-23FC-5B42-AF19-B80F265C4F84}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -9814,31 +9796,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9858,10 +9840,10 @@
         <v>84</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -9884,10 +9866,10 @@
         <v>84</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -9914,10 +9896,10 @@
         <v>84</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -9940,10 +9922,10 @@
         <v>84</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -9966,10 +9948,10 @@
         <v>84</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -9992,10 +9974,10 @@
         <v>84</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -10018,10 +10000,10 @@
         <v>84</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -10044,10 +10026,10 @@
         <v>84</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -10055,7 +10037,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10070,10 +10052,10 @@
         <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -10081,7 +10063,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10096,10 +10078,10 @@
         <v>84</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -10122,10 +10104,10 @@
         <v>84</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -10152,10 +10134,10 @@
         <v>84</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -10178,10 +10160,10 @@
         <v>84</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -10189,7 +10171,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10204,10 +10186,10 @@
         <v>84</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -10215,7 +10197,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10227,10 +10209,10 @@
         <v>84</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -10238,7 +10220,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -10257,10 +10239,10 @@
         <v>84</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -10268,7 +10250,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10283,10 +10265,10 @@
         <v>84</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -10294,7 +10276,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10309,10 +10291,10 @@
         <v>84</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -10320,7 +10302,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10335,10 +10317,10 @@
         <v>84</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -10346,7 +10328,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10361,10 +10343,10 @@
         <v>84</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -10372,7 +10354,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10384,10 +10366,10 @@
         <v>84</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -10412,10 +10394,10 @@
         <v>84</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -10423,7 +10405,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -10442,10 +10424,10 @@
         <v>84</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -10472,10 +10454,10 @@
         <v>84</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -10502,10 +10484,10 @@
         <v>84</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -10513,7 +10495,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10528,10 +10510,10 @@
         <v>84</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -10539,7 +10521,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10554,10 +10536,10 @@
         <v>84</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -10565,7 +10547,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10580,10 +10562,10 @@
         <v>84</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -10591,7 +10573,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10606,10 +10588,10 @@
         <v>84</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -10617,7 +10599,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10632,10 +10614,10 @@
         <v>84</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -10643,7 +10625,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10658,10 +10640,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -10669,7 +10651,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10684,10 +10666,10 @@
         <v>84</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -10710,10 +10692,10 @@
         <v>84</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -10721,7 +10703,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10733,10 +10715,10 @@
         <v>84</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -10759,10 +10741,10 @@
         <v>84</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -10785,10 +10767,10 @@
         <v>84</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -10811,10 +10793,10 @@
         <v>84</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -10822,7 +10804,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -10841,10 +10823,10 @@
         <v>84</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -10867,10 +10849,10 @@
         <v>84</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -10893,10 +10875,10 @@
         <v>84</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -10904,7 +10886,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -10919,10 +10901,10 @@
         <v>84</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -10930,7 +10912,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -10945,10 +10927,10 @@
         <v>84</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -10956,7 +10938,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -10971,10 +10953,10 @@
         <v>84</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -10982,7 +10964,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -10994,10 +10976,10 @@
         <v>84</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -11005,7 +10987,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -11017,10 +10999,10 @@
         <v>84</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -11043,10 +11025,10 @@
         <v>84</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -11069,10 +11051,10 @@
         <v>84</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -11095,10 +11077,10 @@
         <v>84</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -11106,7 +11088,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11118,10 +11100,10 @@
         <v>84</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -11129,7 +11111,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -11144,10 +11126,10 @@
         <v>84</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -11155,7 +11137,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11168,10 +11150,10 @@
         <v>84</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -11179,7 +11161,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -11194,10 +11176,10 @@
         <v>84</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -11205,7 +11187,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11218,10 +11200,10 @@
         <v>84</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -11229,7 +11211,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -11244,10 +11226,10 @@
         <v>84</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -11255,7 +11237,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11268,10 +11250,10 @@
         <v>84</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -11279,7 +11261,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11294,10 +11276,10 @@
         <v>84</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -11305,7 +11287,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -11320,10 +11302,10 @@
         <v>84</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -11331,7 +11313,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -11346,10 +11328,10 @@
         <v>84</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -11357,7 +11339,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -11372,10 +11354,10 @@
         <v>84</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -11383,7 +11365,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -11398,10 +11380,10 @@
         <v>84</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -11409,7 +11391,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -11420,10 +11402,10 @@
         <v>84</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -11431,7 +11413,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -11442,10 +11424,10 @@
         <v>84</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -11453,7 +11435,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -11464,10 +11446,10 @@
         <v>84</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -11475,7 +11457,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -11486,10 +11468,10 @@
         <v>84</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -11497,7 +11479,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -11505,10 +11487,10 @@
         <v>84</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -11516,7 +11498,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -11527,10 +11509,10 @@
         <v>84</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -11538,7 +11520,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -11549,10 +11531,10 @@
         <v>84</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -11560,7 +11542,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -11571,10 +11553,10 @@
         <v>84</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -11582,7 +11564,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -11593,10 +11575,10 @@
         <v>84</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -11604,7 +11586,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>0</v>
@@ -11616,10 +11598,10 @@
         <v>84</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
